--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -26,25 +26,25 @@
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Row1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Row7</t>
+    <t xml:space="preserve">Col1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col7</t>
   </si>
   <si>
     <t xml:space="preserve">A001</t>
@@ -170,15 +170,18 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="5.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -257,7 +260,7 @@
         <v>2.2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -271,17 +274,13 @@
         <v>4.2</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -299,15 +298,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,9 +374,7 @@
       <c r="D4" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>5.1</v>
-      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -408,13 +406,10 @@
       <c r="F6" s="1" t="n">
         <v>7.3</v>
       </c>
-      <c r="G6" s="1" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>6.1</v>
-      </c>
-    </row>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
